--- a/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
+++ b/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshiki\OneDrive\デスクトップ\新生UMIUSI\新生UMIUSI_基板\LM25145_test\タイプ3位相補償設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90881104d375f688/デスクトップ/新生UMIUSI/新生UMIUSI_基板/LM25145_test/タイプ3位相補償設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966C992-E289-48AA-B3E0-4A783307CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1156,9 +1156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A49" sqref="A49"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
+++ b/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10421"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90881104d375f688/デスクトップ/新生UMIUSI/新生UMIUSI_基板/LM25145_test/タイプ3位相補償設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966C992-E289-48AA-B3E0-4A783307CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{6966C992-E289-48AA-B3E0-4A783307CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD4BDAF-D9C1-3D46-BFF0-DCE2850001D7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="81">
   <si>
     <t>13k</t>
     <phoneticPr fontId="1"/>
@@ -117,10 +117,6 @@
   </si>
   <si>
     <t>インダクタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10uH</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -131,15 +127,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>120uF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LCダブルポール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.6kHz</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -304,173 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>ΔI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Iout=0.5A)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ΔI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Iout=1A)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ΔI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Iout=2A)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ΔI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Iout=5A)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負荷変動時の過渡応答
-（Iout = 1A --&gt; 2A)</t>
-    <rPh sb="0" eb="2">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ヘンドウジ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カトオウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負荷変動時の過渡応答
-(Iout = 2A --&gt; 1A)</t>
-    <rPh sb="0" eb="2">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カトオウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負荷変動時の過渡応答
-（Iout = 1A --&gt; 5A)</t>
-    <rPh sb="0" eb="2">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ヘンドウジ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カトオウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負荷変動時の過渡応答
-（Iout = 5A --&gt; 1A)</t>
-    <rPh sb="0" eb="2">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ヘンドウジ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カトオウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ΔVundershoot</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -487,39 +308,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ΔVin(Iout=0.5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVin(Iout=1A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ΔVin(Iout=2A)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ΔVin(Iout=5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔIin(Iout=1A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔIin(Iout=2A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ΔIin(Iout=5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔIin(Iout=0.5A)
-(Δvin*Rinで計算)</t>
-    <rPh sb="26" eb="28">
-      <t>ケイサン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -530,31 +323,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ΔVout(Iout=0.5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVout(Iout=1A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVout(Iout=2A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVout(Iout=5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fsw</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6800p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.5uF</t>
+  </si>
+  <si>
+    <t>135uF</t>
+  </si>
+  <si>
+    <t>4444Hz</t>
+  </si>
+  <si>
+    <t>ΔVout(Iout=2.5A)</t>
+  </si>
+  <si>
+    <t>ΔIL(Iout=2.5A)</t>
+  </si>
+  <si>
+    <t>ΔVin(Iout=5A)</t>
+  </si>
+  <si>
+    <t>負荷変動時の過渡応答
+（Iout = 1A --&gt; 3.5A)</t>
+  </si>
+  <si>
+    <t>Ilim</t>
+  </si>
+  <si>
+    <t>負荷変動時の過渡応答
+(Iout = 3.5A --&gt; 1A)</t>
+  </si>
+  <si>
+    <t>負荷変動時の過渡応答
+（Iout = 1A --&gt; 6A)</t>
+  </si>
+  <si>
+    <t>負荷変動時の過渡応答
+（Iout = 6A --&gt; 1A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,21 +387,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -723,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -769,9 +585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -780,15 +593,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,25 +972,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.3984375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="20" customWidth="1"/>
-    <col min="4" max="5" width="43.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="46" style="20" customWidth="1"/>
+    <col min="1" max="1" width="20.2265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="46.4609375" style="19" customWidth="1"/>
+    <col min="4" max="5" width="43.51953125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.97265625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -1180,7 +998,7 @@
       <c r="F1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1188,12 +1006,12 @@
       <c r="F2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -1201,12 +1019,12 @@
       <c r="F3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -1214,12 +1032,12 @@
       <c r="F4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -1227,7 +1045,7 @@
       <c r="F5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1237,33 +1055,33 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1">
+    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B8" s="7">
         <v>48</v>
@@ -1283,9 +1101,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8">
         <v>57</v>
@@ -1305,9 +1123,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1">
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9">
         <v>8</v>
@@ -1316,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E10" s="9">
         <v>24</v>
@@ -1327,9 +1145,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7">
         <v>4.0999999999999996</v>
@@ -1349,9 +1167,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="8">
         <v>5</v>
@@ -1371,9 +1189,9 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8">
         <v>250</v>
@@ -1393,9 +1211,9 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="9">
         <v>250</v>
@@ -1415,75 +1233,75 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
       <c r="H15" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
       <c r="H16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
       <c r="H17" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="B18" s="8">
         <v>360</v>
@@ -1491,7 +1309,7 @@
       <c r="C18" s="8">
         <v>470</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="29">
         <v>560</v>
       </c>
       <c r="E18" s="8">
@@ -1503,9 +1321,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3</v>
@@ -1514,310 +1332,226 @@
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="6"/>
       <c r="H19" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="142.19999999999999" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="142.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="21" t="e" vm="1">
+        <v>7</v>
+      </c>
+      <c r="B20" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="21" t="e" vm="2">
+      <c r="C20" s="20" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="21" t="e" vm="3">
+      <c r="D20" s="20" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="E20" s="21" t="e" vm="4">
+      <c r="E20" s="20" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="21" t="e" vm="5">
+      <c r="H20" s="20" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="27" t="s">
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="27" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5" t="s">
-        <v>45</v>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="19"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+    <row r="33" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="36">
-      <c r="A37" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="36">
-      <c r="A41" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="1:8" ht="36">
-      <c r="A43" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8" ht="36">
-      <c r="A45" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:8" ht="36">
-      <c r="A47" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="25"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="26"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
+++ b/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90881104d375f688/デスクトップ/新生UMIUSI/新生UMIUSI_基板/LM25145_test/タイプ3位相補償設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{6966C992-E289-48AA-B3E0-4A783307CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD4BDAF-D9C1-3D46-BFF0-DCE2850001D7}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{F392E706-EB1C-4ED8-8C34-E91800CED87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{397289A5-97DC-9344-AD41-B544DEE01D09}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,15 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="81">
-  <si>
-    <t>13k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2700p</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>47p</t>
     <phoneticPr fontId="1"/>
@@ -308,14 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ΔVin(Iout=2A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔIin(Iout=5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下はVin=24V</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -343,19 +327,10 @@
     <t>ΔVout(Iout=2.5A)</t>
   </si>
   <si>
-    <t>ΔIL(Iout=2.5A)</t>
-  </si>
-  <si>
-    <t>ΔVin(Iout=5A)</t>
-  </si>
-  <si>
     <t>負荷変動時の過渡応答
 （Iout = 1A --&gt; 3.5A)</t>
   </si>
   <si>
-    <t>Ilim</t>
-  </si>
-  <si>
     <t>負荷変動時の過渡応答
 (Iout = 3.5A --&gt; 1A)</t>
   </si>
@@ -366,6 +341,70 @@
   <si>
     <t>負荷変動時の過渡応答
 （Iout = 6A --&gt; 1A)</t>
+  </si>
+  <si>
+    <t>15k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3300p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ilim(おおよそ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>309k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔVout(Iout=1A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔVout(Iout=5A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔIL(Iout=5A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔVin(Iout=5A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定不能</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vout(ave)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.21V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔIin(Iout=5A)　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分解能20mVでも測定不能</t>
+    <rPh sb="0" eb="3">
+      <t>ブンカイノウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ソクテイフノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -539,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,7 +604,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -582,20 +620,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -607,6 +637,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,119 +1018,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="142" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B21" activePane="topRight" state="frozen"/>
+      <selection activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.2265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="46.4609375" style="19" customWidth="1"/>
-    <col min="4" max="5" width="43.51953125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="45.97265625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="24.76171875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="46.4609375" style="29" customWidth="1"/>
+    <col min="4" max="5" width="43.51953125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="45.97265625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
+      <c r="G1"/>
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
+      <c r="G4"/>
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
+      <c r="G5"/>
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="24" t="s">
-        <v>29</v>
+      <c r="D7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
         <v>37</v>
@@ -1103,10 +1157,10 @@
     </row>
     <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="8">
         <v>58</v>
@@ -1125,10 +1179,10 @@
     </row>
     <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9">
         <v>12</v>
@@ -1147,10 +1201,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="C11" s="7">
         <v>4.0999999999999996</v>
@@ -1169,10 +1223,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -1191,10 +1245,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8">
-        <v>250</v>
+        <v>322</v>
       </c>
       <c r="C13" s="8">
         <v>200</v>
@@ -1213,10 +1267,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C14" s="9">
         <v>250</v>
@@ -1234,82 +1288,82 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>14</v>
+      <c r="A15" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
       <c r="H15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
       <c r="H16" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
       <c r="H17" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>15</v>
+      <c r="A18" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="8">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C18" s="8">
         <v>470</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="24">
         <v>560</v>
       </c>
       <c r="E18" s="8">
@@ -1323,235 +1377,311 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="6"/>
       <c r="H19" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="142.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="20" t="e" vm="1">
+      <c r="A20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="17" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="20" t="e" vm="2">
+      <c r="C20" s="17" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="20" t="e" vm="3">
+      <c r="D20" s="17" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="E20" s="20" t="e" vm="4">
+      <c r="E20" s="17" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="20" t="e" vm="5">
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="21"/>
+      <c r="A21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18">
+        <v>5.14</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25">
+        <v>307.8</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="25">
+        <v>7.9</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25">
+        <v>7.9</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="23"/>
+      <c r="A33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="23"/>
+      <c r="A35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="24"/>
+      <c r="A36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="24"/>
+      <c r="A38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
+++ b/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90881104d375f688/デスクトップ/新生UMIUSI/新生UMIUSI_基板/LM25145_test/タイプ3位相補償設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshiki\OneDrive\デスクトップ\UMIUSI\新生UMIUSI_基板\LM25145_test\タイプ3位相補償設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{F392E706-EB1C-4ED8-8C34-E91800CED87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{397289A5-97DC-9344-AD41-B544DEE01D09}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C19DEAD5-64D9-4F7D-BE82-6E8E9F5B3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48DC1735-86CA-514D-9C01-F992F48017FD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,13 +98,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>47p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1800p</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -199,14 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3900p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>68p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5600p</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,6 +393,9 @@
       <t>ソクテイフノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10k</t>
   </si>
 </sst>
 </file>
@@ -578,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,10 +639,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1020,84 +1007,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="142" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B21" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B10" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="D27" sqref="D27"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.76171875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="46.4609375" style="29" customWidth="1"/>
-    <col min="4" max="5" width="43.51953125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="45.97265625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="24.76171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.4609375" customWidth="1"/>
+    <col min="4" max="5" width="43.51953125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.97265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
@@ -1111,31 +1061,31 @@
     </row>
     <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7">
         <v>43</v>
@@ -1157,7 +1107,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8">
         <v>60</v>
@@ -1179,7 +1129,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9">
         <v>12</v>
@@ -1201,7 +1151,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7">
         <v>3.2</v>
@@ -1223,7 +1173,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8">
         <v>5.8</v>
@@ -1245,7 +1195,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8">
         <v>322</v>
@@ -1267,7 +1217,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9">
         <v>229</v>
@@ -1289,73 +1239,73 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
       <c r="H15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
       <c r="H16" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
       <c r="H17" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="8">
         <v>330</v>
@@ -1377,29 +1327,29 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="6"/>
       <c r="H19" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="142.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="17" t="e" vm="1">
         <v>#VALUE!</v>
@@ -1421,10 +1371,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18">
@@ -1437,10 +1387,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25">
@@ -1453,7 +1403,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="25">
         <v>8.6999999999999993</v>
@@ -1469,7 +1419,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" s="25">
         <v>7.9</v>
@@ -1485,7 +1435,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -1497,7 +1447,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="25">
         <v>7.5</v>
@@ -1513,19 +1463,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1537,7 +1487,7 @@
     </row>
     <row r="29" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1549,10 +1499,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -1563,7 +1513,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1575,10 +1525,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1589,7 +1539,7 @@
     </row>
     <row r="33" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1601,7 +1551,7 @@
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1613,7 +1563,7 @@
     </row>
     <row r="35" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1625,7 +1575,7 @@
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1637,7 +1587,7 @@
     </row>
     <row r="37" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1649,7 +1599,7 @@
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1661,7 +1611,7 @@
     </row>
     <row r="39" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1673,7 +1623,7 @@
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>

--- a/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
+++ b/LM25145_test/タイプ3位相補償設計/タイプ3位相補償、5パターン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshiki\OneDrive\デスクトップ\UMIUSI\新生UMIUSI_基板\LM25145_test\タイプ3位相補償設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90881104d375f688/デスクトップ/UMIUSI/新生UMIUSI_基板/LM25145_test/タイプ3位相補償設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C19DEAD5-64D9-4F7D-BE82-6E8E9F5B3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48DC1735-86CA-514D-9C01-F992F48017FD}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C19DEAD5-64D9-4F7D-BE82-6E8E9F5B3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5F0AA2C-09FB-4978-8283-8CE439352C69}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>47p</t>
     <phoneticPr fontId="1"/>
@@ -158,7 +158,234 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>位相交差周波数(Hz)</t>
+    <t>Rc1(Ω)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rc2(Ω)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cc1(F)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cc2(F)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cc3(F)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5600p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>82p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1500p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.1k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安定性重視</t>
+    <rPh sb="0" eb="3">
+      <t>アンテイセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤（WEBBENCH　DESINGERの推奨）</t>
+    <rPh sb="20" eb="22">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fz1(kHz)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fz2(kHz)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fp1(kHz)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fp2(kHz)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4700p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>820p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③(デフォルト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔVundershoot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔVovershoot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ven</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vdis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下はVin=24V</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6800p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.5uF</t>
+  </si>
+  <si>
+    <t>135uF</t>
+  </si>
+  <si>
+    <t>4444Hz</t>
+  </si>
+  <si>
+    <t>ΔVout(Iout=2.5A)</t>
+  </si>
+  <si>
+    <t>負荷変動時の過渡応答
+（Iout = 1A --&gt; 3.5A)</t>
+  </si>
+  <si>
+    <t>負荷変動時の過渡応答
+(Iout = 3.5A --&gt; 1A)</t>
+  </si>
+  <si>
+    <t>負荷変動時の過渡応答
+（Iout = 1A --&gt; 6A)</t>
+  </si>
+  <si>
+    <t>負荷変動時の過渡応答
+（Iout = 6A --&gt; 1A)</t>
+  </si>
+  <si>
+    <t>15k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3300p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ilim(おおよそ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>309k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔVout(Iout=1A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔVout(Iout=5A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔIL(Iout=5A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔVin(Iout=5A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定不能</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vout(ave)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.21V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔIin(Iout=5A)　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分解能20mVでも測定不能</t>
+    <rPh sb="0" eb="3">
+      <t>ブンカイノウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ソクテイフノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>位相交差周波数(kHz)</t>
     <rPh sb="0" eb="2">
       <t>イソウ</t>
     </rPh>
@@ -170,239 +397,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>Rc1(Ω)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rc2(Ω)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cc1(F)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cc2(F)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cc3(F)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5600p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>82p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1500p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9.1k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>安定性重視</t>
-    <rPh sb="0" eb="3">
-      <t>アンテイセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤（WEBBENCH　DESINGERの推奨）</t>
-    <rPh sb="20" eb="22">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>22k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fz1(kHz)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fz2(kHz)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fp1(kHz)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fp2(kHz)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4700p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>820p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③(デフォルト）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVundershoot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVovershoot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ven</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vdis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下はVin=24V</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6800p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9.5uF</t>
-  </si>
-  <si>
-    <t>135uF</t>
-  </si>
-  <si>
-    <t>4444Hz</t>
-  </si>
-  <si>
-    <t>ΔVout(Iout=2.5A)</t>
-  </si>
-  <si>
-    <t>負荷変動時の過渡応答
-（Iout = 1A --&gt; 3.5A)</t>
-  </si>
-  <si>
-    <t>負荷変動時の過渡応答
-(Iout = 3.5A --&gt; 1A)</t>
-  </si>
-  <si>
-    <t>負荷変動時の過渡応答
-（Iout = 1A --&gt; 6A)</t>
-  </si>
-  <si>
-    <t>負荷変動時の過渡応答
-（Iout = 6A --&gt; 1A)</t>
-  </si>
-  <si>
-    <t>15k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3300p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ilim(おおよそ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>309k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVout(Iout=1A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVout(Iout=5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔIL(Iout=5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔVin(Iout=5A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>測定不能</t>
-    <rPh sb="0" eb="2">
-      <t>ソクテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vout(ave)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.21V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ΔIin(Iout=5A)　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分解能20mVでも測定不能</t>
-    <rPh sb="0" eb="3">
-      <t>ブンカイノウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ソクテイフノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,51 +1005,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B10" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="24.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="46.4609375" customWidth="1"/>
-    <col min="4" max="5" width="43.51953125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="45.97265625" customWidth="1"/>
+    <col min="1" max="1" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="3" width="47.3984375" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="6" width="43.5" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" customWidth="1"/>
+    <col min="9" max="9" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1"/>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1058,580 +1059,617 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7">
         <v>43</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="7">
         <v>37</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="7">
         <v>31</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>29</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="7">
+      <c r="G8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="8">
         <v>60</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>58</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>59</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>57</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="8">
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
-        <v>12</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="9">
         <v>12</v>
       </c>
       <c r="D10" s="9">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9">
         <v>13</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9">
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7">
         <v>3.2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="7">
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="8">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8">
         <v>5.8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <v>5</v>
-      </c>
-      <c r="D12" s="8">
-        <v>6</v>
       </c>
       <c r="E12" s="8">
         <v>6</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="8">
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8">
         <v>10.7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="8">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8">
         <v>322</v>
-      </c>
-      <c r="C13" s="8">
-        <v>200</v>
       </c>
       <c r="D13" s="8">
         <v>200</v>
       </c>
       <c r="E13" s="8">
+        <v>200</v>
+      </c>
+      <c r="F13" s="8">
         <v>100</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="8">
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8">
         <v>1903</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9">
+        <v>229</v>
+      </c>
+      <c r="D14" s="9">
+        <v>250</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1700</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9">
-        <v>229</v>
-      </c>
-      <c r="C14" s="9">
-        <v>250</v>
-      </c>
-      <c r="D14" s="9">
-        <v>200</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1700</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="9">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="8">
+        <v>330</v>
+      </c>
+      <c r="D18" s="8">
+        <v>470</v>
+      </c>
+      <c r="E18" s="24">
+        <v>560</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1150</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="8" t="s">
+      <c r="D19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8">
-        <v>330</v>
-      </c>
-      <c r="C18" s="8">
-        <v>470</v>
-      </c>
-      <c r="D18" s="24">
-        <v>560</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1150</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="8">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="142.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="142.19999999999999" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="17" t="e" vm="1">
+      <c r="B20" s="14"/>
+      <c r="C20" s="17" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="17" t="e" vm="2">
+      <c r="D20" s="17" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="17" t="e" vm="3">
+      <c r="E20" s="17" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="E20" s="17" t="e" vm="4">
+      <c r="F20" s="17" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="17" t="e" vm="5">
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="17" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <v>5.14</v>
       </c>
-      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="18"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25">
+        <v>38</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25">
         <v>307.8</v>
       </c>
-      <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="25">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="25">
+        <v>7.9</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25">
+        <v>7.9</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="25">
-        <v>7.9</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25">
-        <v>7.9</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="25">
+        <v>50</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="25">
         <v>7.5</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25">
         <v>7.5</v>
       </c>
-      <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" ht="19.2" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="8"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="19.2" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="8"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="8"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="G32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="36">
       <c r="A33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G33" s="7"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="G34" s="9"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="36">
       <c r="A35" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="B35" s="13"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G35" s="7"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="G36" s="9"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="36">
       <c r="A37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G37" s="7"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="11"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="G38" s="9"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" ht="36">
       <c r="A39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G39" s="7"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="11"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
